--- a/database.xlsx
+++ b/database.xlsx
@@ -487,7 +487,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/abhinav-rawat/</t>
+          <t>https://www.linkedin.com/in/prakhar-jain-504a73195/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
